--- a/Config/EventPackage.xlsx
+++ b/Config/EventPackage.xlsx
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +110,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,8 +139,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -414,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -496,7 +504,7 @@
         <v>10001</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -513,7 +521,7 @@
         <v>10002</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -530,7 +538,7 @@
         <v>10003</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -547,7 +555,7 @@
         <v>10004</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -564,14 +572,14 @@
         <v>10005</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>2002</v>
       </c>
       <c r="C9">
@@ -588,7 +596,7 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>2003</v>
       </c>
       <c r="C10">
@@ -605,7 +613,7 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>2004</v>
       </c>
       <c r="C11">
@@ -622,7 +630,7 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>2005</v>
       </c>
       <c r="C12">
@@ -632,6 +640,23 @@
         <v>30003</v>
       </c>
       <c r="F12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2006</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>30004</v>
+      </c>
+      <c r="F13">
         <v>100</v>
       </c>
     </row>
